--- a/backend/Data/data.xlsx
+++ b/backend/Data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuantq/UyenTTT/nutrition-mapping/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuantq/UyenTTT/khuyennghidinhduong/backend/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95BAEF8-9AAF-D84A-A7BF-FAEAEC08067B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D885EA-4561-FE4B-9EC5-B9461B674AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="1480" windowWidth="17320" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12920" yWindow="1480" windowWidth="17320" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="1473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="1491">
   <si>
     <t>calories</t>
   </si>
@@ -584,9 +584,6 @@
     <t>Peanut Flour</t>
   </si>
   <si>
-    <t>Soybean Curt Cake Pressed, Raw</t>
-  </si>
-  <si>
     <t>Curd Tofu Concentrated</t>
   </si>
   <si>
@@ -3089,30 +3086,15 @@
     <t>bột nghệ</t>
   </si>
   <si>
-    <t>nghệ</t>
-  </si>
-  <si>
-    <t>bột ớt, ớt khô, bột ớt đỏ</t>
-  </si>
-  <si>
     <t>Mắm tép chua</t>
   </si>
   <si>
     <t xml:space="preserve">cốc tai, cốc teo, </t>
   </si>
   <si>
-    <t>nước ngọt có gas, nước ngọt có ga, nước ngọt</t>
-  </si>
-  <si>
-    <t>nước cam, cam vắt</t>
-  </si>
-  <si>
     <t>nước dừa</t>
   </si>
   <si>
-    <t>ép cà chua</t>
-  </si>
-  <si>
     <t>nước lọc, nước suối, nước</t>
   </si>
   <si>
@@ -3302,9 +3284,6 @@
     <t xml:space="preserve">cá mòi, cá sardine, cá mòi biển, cá trích nhỏ  </t>
   </si>
   <si>
-    <t xml:space="preserve">cá béo, cá mỡ biển, cá mỡ dầu, cá béo nục  </t>
-  </si>
-  <si>
     <t xml:space="preserve">cá mối cát, cá mối biển, cá mối nhỏ, cá mối khô  </t>
   </si>
   <si>
@@ -3683,15 +3662,6 @@
     <t>trái bơ, quả bơ, bơ sáp, bơ booth</t>
   </si>
   <si>
-    <t>dầu thực vật, dầu ăn, dầu chiên rán</t>
-  </si>
-  <si>
-    <t>tóp mỡ muối</t>
-  </si>
-  <si>
-    <t>bơ ăn, bơ tường an, bơ mặn</t>
-  </si>
-  <si>
     <t>dầu hạt gòn, dầu hạt bông</t>
   </si>
   <si>
@@ -3722,21 +3692,6 @@
     <t>quả ổi, trái ổi, ổi xá lỵ, ổi lê, ổi đào</t>
   </si>
   <si>
-    <t>bơ tím, bơ chín</t>
-  </si>
-  <si>
-    <t>bơ xanh, bơ sáp</t>
-  </si>
-  <si>
-    <t>trái cóc, cóc chua</t>
-  </si>
-  <si>
-    <t>thanh long ruột đỏ, thanh long ruột trắng</t>
-  </si>
-  <si>
-    <t>quả lêkima, lê ki ma, lêkima</t>
-  </si>
-  <si>
     <t>quả quất, trái tắt, tắt, tắt chín, quất vàng</t>
   </si>
   <si>
@@ -3803,9 +3758,6 @@
     <t>bột gạo</t>
   </si>
   <si>
-    <t>bột mì đa dụng, bột mì nguyên cám</t>
-  </si>
-  <si>
     <t>bột bắp, bột ngô, tinh bột bắp, tinh bột ngô</t>
   </si>
   <si>
@@ -3818,21 +3770,9 @@
     <t>bột đậu phộng, bột đỗ, xác đỗ, xác đậu</t>
   </si>
   <si>
-    <t>đậu miếng</t>
-  </si>
-  <si>
-    <t>đậu miếng nướng</t>
-  </si>
-  <si>
-    <t>hạt bí, hạt bí đỏ</t>
-  </si>
-  <si>
     <t>hạt dưa, hạt dưa hấu</t>
   </si>
   <si>
-    <t>hạt điều, hạt điều rang, điều, đào, hạt đào, hạt điều bóc vỏ</t>
-  </si>
-  <si>
     <t>cà rốt tươi</t>
   </si>
   <si>
@@ -4172,9 +4112,6 @@
     <t>tinh bột khoai tây</t>
   </si>
   <si>
-    <t>bột mì, bột khoai mì</t>
-  </si>
-  <si>
     <t>bột cát căn</t>
   </si>
   <si>
@@ -4310,18 +4247,9 @@
     <t>hoa thiên lý, thiên lý</t>
   </si>
   <si>
-    <t>quả chanh, quả chanh, nước cốt chanh, nước chanh</t>
-  </si>
-  <si>
     <t>sữa đặc, sữa đặc có đường, kem đặc có đường, kem đặc, sữa ông thọ</t>
   </si>
   <si>
-    <t>đường, đường vàng</t>
-  </si>
-  <si>
-    <t>đường trắng, đường kính trắng</t>
-  </si>
-  <si>
     <t>kẹo dừa</t>
   </si>
   <si>
@@ -4343,9 +4271,6 @@
     <t>gừng lát, gừng, gừng sợi, củ gừng</t>
   </si>
   <si>
-    <t>mắm tôm</t>
-  </si>
-  <si>
     <t>mắm tôm nhạt, mắm tôm pha</t>
   </si>
   <si>
@@ -4367,9 +4292,6 @@
     <t>tương bắp</t>
   </si>
   <si>
-    <t>tương cà, tương đỏ</t>
-  </si>
-  <si>
     <t>nước tương</t>
   </si>
   <si>
@@ -4440,6 +4362,138 @@
   </si>
   <si>
     <t>đậu phộng, lạc, đỗ phộng, đỗ, đậu phộng rang, đỗ rang</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>bột mì đa dụng, bột mì nguyên cám, bột khoai mì</t>
+  </si>
+  <si>
+    <t>đậu nành bột, đậu này khô, đậu nành sấy</t>
+  </si>
+  <si>
+    <t>bột đậu tương rang</t>
+  </si>
+  <si>
+    <t>đậu miếng, đậu hũ</t>
+  </si>
+  <si>
+    <t>Soybean Curt Cake Pressed, Raw, Tofu</t>
+  </si>
+  <si>
+    <t>chao đậu</t>
+  </si>
+  <si>
+    <t>đậu miếng nướng, đậu hũ nướng</t>
+  </si>
+  <si>
+    <t>hạt bí, hạt bí đỏ, hạt bí rang</t>
+  </si>
+  <si>
+    <t>hạt điều, hạt điều rang, điều, đào, hạt đào, hạt điều bóc vỏ chiên, hạt điều chiên, hạt đào chiên</t>
+  </si>
+  <si>
+    <t>quả chanh, nước cốt chanh, nước ép chanh, nước chanh</t>
+  </si>
+  <si>
+    <t>trái chôm chôm</t>
+  </si>
+  <si>
+    <t>bơ tím, bơ chín, bơ vỏ tím</t>
+  </si>
+  <si>
+    <t>bơ xanh, bơ sáp, bơ vỏ xanh</t>
+  </si>
+  <si>
+    <t>trái cóc, cóc chua, cóc</t>
+  </si>
+  <si>
+    <t>thanh long ruột đỏ, thanh long ruột trắng, thanh long, trái thanh long, dragon fruit</t>
+  </si>
+  <si>
+    <t>quả lêkima, lê ki ma, lêkima, trái trứng gà</t>
+  </si>
+  <si>
+    <t>mỡ heo muối</t>
+  </si>
+  <si>
+    <t>mỡ lợn, mỡ heo</t>
+  </si>
+  <si>
+    <t>bơ ăn, bơ tường an, bơ lạt, bơ nhạt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cá mỡ biển, cá mỡ dầu, cá béo nục  </t>
+  </si>
+  <si>
+    <t>đường, đường tinh luyện</t>
+  </si>
+  <si>
+    <t>đường trắng, đường kính trắng, đường hạt</t>
+  </si>
+  <si>
+    <t>nghệ, nước nghệ</t>
+  </si>
+  <si>
+    <t>bột ớt, ớt khô, bột ớt đỏ, ớt bột, ớt khô xay, ớt sấy xay, ớt khô nghiền</t>
+  </si>
+  <si>
+    <t>mắm tôm nguyên chất, mắm tôm</t>
+  </si>
+  <si>
+    <t>tương đỏ</t>
+  </si>
+  <si>
+    <t>nước ngọt có gas, nước ngọt có ga, nước ngọt, coca</t>
+  </si>
+  <si>
+    <t>nước cam, cam vắt, nước cốt cam</t>
+  </si>
+  <si>
+    <t>ép cà chua, cà chua ép, sinh tố cà chua, nước cà chua</t>
+  </si>
+  <si>
+    <t>nước ép quít, ép quít</t>
+  </si>
+  <si>
+    <t>Dầu thực vật</t>
+  </si>
+  <si>
+    <t>dầu ăn, dầu nấu ăn, dầu chiên rán</t>
+  </si>
+  <si>
+    <t>cooking oil, vegetable oil</t>
+  </si>
+  <si>
+    <t>usda</t>
+  </si>
+  <si>
+    <t>tương cà</t>
+  </si>
+  <si>
+    <t>ketchup</t>
+  </si>
+  <si>
+    <t>dầu hào</t>
+  </si>
+  <si>
+    <t>oyster sauce</t>
+  </si>
+  <si>
+    <t>giấm</t>
+  </si>
+  <si>
+    <t>giấm ăn, nước giấm, giấm trắng</t>
+  </si>
+  <si>
+    <t>vinegar</t>
+  </si>
+  <si>
+    <t>nước cốt dừa</t>
+  </si>
+  <si>
+    <t>Coconut Milk</t>
   </si>
 </sst>
 </file>
@@ -4500,7 +4554,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4523,11 +4577,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4540,6 +4605,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4842,10 +4910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J527"/>
+  <dimension ref="A1:K532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A504" workbookViewId="0">
+      <selection activeCell="A535" sqref="A535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4855,12 +4923,12 @@
     <col min="3" max="3" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>115</v>
@@ -4886,13 +4954,16 @@
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="8" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>1253</v>
+        <v>1238</v>
       </c>
       <c r="C2" t="s">
         <v>116</v>
@@ -4916,12 +4987,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="C3" t="s">
         <v>116</v>
@@ -4945,12 +5016,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>1392</v>
+        <v>1371</v>
       </c>
       <c r="C4" t="s">
         <v>117</v>
@@ -4974,12 +5045,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
-        <v>1393</v>
+        <v>1372</v>
       </c>
       <c r="C5" t="s">
         <v>118</v>
@@ -5003,12 +5074,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1394</v>
+        <v>1373</v>
       </c>
       <c r="C6" t="s">
         <v>119</v>
@@ -5032,12 +5103,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1395</v>
+        <v>1374</v>
       </c>
       <c r="C7" t="s">
         <v>120</v>
@@ -5061,12 +5132,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
-        <v>1254</v>
+        <v>1239</v>
       </c>
       <c r="C8" t="s">
         <v>121</v>
@@ -5093,12 +5164,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
-        <v>1396</v>
+        <v>1375</v>
       </c>
       <c r="C9" t="s">
         <v>122</v>
@@ -5125,12 +5196,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>1255</v>
+        <v>1240</v>
       </c>
       <c r="C10" t="s">
         <v>123</v>
@@ -5151,12 +5222,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>1397</v>
+        <v>1376</v>
       </c>
       <c r="C11" t="s">
         <v>124</v>
@@ -5177,12 +5248,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>1398</v>
+        <v>1377</v>
       </c>
       <c r="C12" t="s">
         <v>125</v>
@@ -5203,12 +5274,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>1399</v>
+        <v>1378</v>
       </c>
       <c r="C13" t="s">
         <v>126</v>
@@ -5229,12 +5300,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>1400</v>
+        <v>1379</v>
       </c>
       <c r="C14" t="s">
         <v>127</v>
@@ -5258,12 +5329,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>1256</v>
+        <v>1241</v>
       </c>
       <c r="C15" t="s">
         <v>128</v>
@@ -5284,12 +5355,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>1257</v>
+        <v>1242</v>
       </c>
       <c r="C16" t="s">
         <v>129</v>
@@ -5315,7 +5386,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
       <c r="C17" t="s">
         <v>130</v>
@@ -5344,7 +5415,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>1259</v>
+        <v>1244</v>
       </c>
       <c r="C18" t="s">
         <v>131</v>
@@ -5373,7 +5444,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>1260</v>
+        <v>1448</v>
       </c>
       <c r="C19" t="s">
         <v>132</v>
@@ -5399,10 +5470,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B20" t="s">
-        <v>1261</v>
+        <v>1245</v>
       </c>
       <c r="C20" t="s">
         <v>133</v>
@@ -5474,7 +5545,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>1262</v>
+        <v>1246</v>
       </c>
       <c r="C23" t="s">
         <v>136</v>
@@ -5497,10 +5568,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B24" t="s">
-        <v>1263</v>
+        <v>1247</v>
       </c>
       <c r="C24" t="s">
         <v>137</v>
@@ -5526,7 +5597,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>1369</v>
+        <v>1349</v>
       </c>
       <c r="C25" t="s">
         <v>138</v>
@@ -5549,10 +5620,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B26" t="s">
-        <v>1462</v>
+        <v>1436</v>
       </c>
       <c r="C26" t="s">
         <v>139</v>
@@ -5581,7 +5652,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>1370</v>
+        <v>1350</v>
       </c>
       <c r="C27" t="s">
         <v>140</v>
@@ -5604,7 +5675,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>1371</v>
+        <v>1351</v>
       </c>
       <c r="C28" t="s">
         <v>141</v>
@@ -5633,7 +5704,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>1372</v>
+        <v>1352</v>
       </c>
       <c r="C29" t="s">
         <v>142</v>
@@ -5659,7 +5730,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>1373</v>
+        <v>1353</v>
       </c>
       <c r="C30" t="s">
         <v>143</v>
@@ -5685,7 +5756,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>1466</v>
+        <v>1440</v>
       </c>
       <c r="C31" t="s">
         <v>144</v>
@@ -5708,7 +5779,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1463</v>
+        <v>1437</v>
       </c>
       <c r="C32" t="s">
         <v>145</v>
@@ -5734,10 +5805,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s">
-        <v>1464</v>
+        <v>1438</v>
       </c>
       <c r="C33" t="s">
         <v>146</v>
@@ -5763,7 +5834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>1465</v>
+        <v>1439</v>
       </c>
       <c r="C34" t="s">
         <v>147</v>
@@ -5789,7 +5860,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>1374</v>
+        <v>1354</v>
       </c>
       <c r="C35" t="s">
         <v>148</v>
@@ -5815,7 +5886,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>1375</v>
+        <v>1355</v>
       </c>
       <c r="C36" t="s">
         <v>149</v>
@@ -5838,7 +5909,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>1376</v>
+        <v>1356</v>
       </c>
       <c r="C37" t="s">
         <v>150</v>
@@ -5867,7 +5938,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>1377</v>
+        <v>1357</v>
       </c>
       <c r="C38" t="s">
         <v>151</v>
@@ -5896,7 +5967,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>1378</v>
+        <v>1358</v>
       </c>
       <c r="C39" t="s">
         <v>152</v>
@@ -5919,10 +5990,10 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s">
-        <v>1379</v>
+        <v>1359</v>
       </c>
       <c r="C40" t="s">
         <v>153</v>
@@ -5965,10 +6036,10 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>1381</v>
+        <v>1361</v>
       </c>
       <c r="B42" t="s">
-        <v>1380</v>
+        <v>1360</v>
       </c>
       <c r="C42" t="s">
         <v>155</v>
@@ -5988,10 +6059,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B43" t="s">
-        <v>1382</v>
+        <v>1362</v>
       </c>
       <c r="C43" t="s">
         <v>156</v>
@@ -6016,9 +6087,6 @@
       <c r="A44" t="s">
         <v>39</v>
       </c>
-      <c r="B44" t="s">
-        <v>1383</v>
-      </c>
       <c r="C44" t="s">
         <v>157</v>
       </c>
@@ -6043,7 +6111,7 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>1384</v>
+        <v>1363</v>
       </c>
       <c r="C45" t="s">
         <v>158</v>
@@ -6066,7 +6134,7 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>1385</v>
+        <v>1364</v>
       </c>
       <c r="C46" t="s">
         <v>159</v>
@@ -6095,7 +6163,7 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>1386</v>
+        <v>1365</v>
       </c>
       <c r="C47" t="s">
         <v>160</v>
@@ -6147,7 +6215,7 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>1387</v>
+        <v>1366</v>
       </c>
       <c r="C49" t="s">
         <v>162</v>
@@ -6173,7 +6241,7 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>1388</v>
+        <v>1367</v>
       </c>
       <c r="C50" t="s">
         <v>163</v>
@@ -6196,7 +6264,7 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>1389</v>
+        <v>1368</v>
       </c>
       <c r="C51" t="s">
         <v>164</v>
@@ -6225,7 +6293,7 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>1390</v>
+        <v>1369</v>
       </c>
       <c r="C52" t="s">
         <v>165</v>
@@ -6251,7 +6319,7 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>1467</v>
+        <v>1441</v>
       </c>
       <c r="C53" t="s">
         <v>166</v>
@@ -6277,7 +6345,7 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>1468</v>
+        <v>1442</v>
       </c>
       <c r="C54" t="s">
         <v>167</v>
@@ -6303,7 +6371,7 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>1469</v>
+        <v>1443</v>
       </c>
       <c r="C55" t="s">
         <v>168</v>
@@ -6329,7 +6397,7 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>1470</v>
+        <v>1444</v>
       </c>
       <c r="C56" t="s">
         <v>169</v>
@@ -6355,10 +6423,10 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>1368</v>
+        <v>1348</v>
       </c>
       <c r="B57" t="s">
-        <v>1367</v>
+        <v>1347</v>
       </c>
       <c r="C57" t="s">
         <v>170</v>
@@ -6384,10 +6452,10 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="B58" t="s">
-        <v>1365</v>
+        <v>1345</v>
       </c>
       <c r="C58" t="s">
         <v>171</v>
@@ -6433,10 +6501,10 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>1363</v>
+        <v>1343</v>
       </c>
       <c r="B60" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
       <c r="C60" t="s">
         <v>173</v>
@@ -6511,7 +6579,7 @@
         <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>1362</v>
+        <v>1342</v>
       </c>
       <c r="C63" t="s">
         <v>175</v>
@@ -6560,7 +6628,7 @@
         <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>1471</v>
+        <v>1445</v>
       </c>
       <c r="C65" t="s">
         <v>177</v>
@@ -6592,7 +6660,7 @@
         <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="C66" t="s">
         <v>178</v>
@@ -6615,7 +6683,7 @@
         <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>1472</v>
+        <v>1446</v>
       </c>
       <c r="C67" t="s">
         <v>179</v>
@@ -6664,7 +6732,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C69" t="s">
         <v>181</v>
@@ -6690,7 +6758,7 @@
         <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>1409</v>
+        <v>1388</v>
       </c>
       <c r="C70" t="s">
         <v>182</v>
@@ -6719,10 +6787,10 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B71" t="s">
-        <v>1264</v>
+        <v>1449</v>
       </c>
       <c r="C71" t="s">
         <v>183</v>
@@ -6750,6 +6818,9 @@
       <c r="A72" t="s">
         <v>62</v>
       </c>
+      <c r="B72" t="s">
+        <v>1450</v>
+      </c>
       <c r="C72" t="s">
         <v>184</v>
       </c>
@@ -6774,7 +6845,7 @@
         <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>1410</v>
+        <v>1389</v>
       </c>
       <c r="C73" t="s">
         <v>185</v>
@@ -6803,7 +6874,7 @@
         <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>1264</v>
+        <v>1248</v>
       </c>
       <c r="C74" t="s">
         <v>186</v>
@@ -6832,10 +6903,10 @@
         <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>1265</v>
+        <v>1451</v>
       </c>
       <c r="C75" t="s">
-        <v>187</v>
+        <v>1452</v>
       </c>
       <c r="D75">
         <v>95</v>
@@ -6858,10 +6929,13 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1453</v>
       </c>
       <c r="C76" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D76">
         <v>414</v>
@@ -6884,10 +6958,10 @@
         <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>1266</v>
+        <v>1454</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D77">
         <v>114</v>
@@ -6907,13 +6981,13 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B78" t="s">
-        <v>1267</v>
+        <v>1455</v>
       </c>
       <c r="C78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D78">
         <v>519</v>
@@ -6933,13 +7007,13 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B79" t="s">
-        <v>1268</v>
+        <v>1249</v>
       </c>
       <c r="C79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D79">
         <v>551</v>
@@ -6959,13 +7033,13 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B80" t="s">
-        <v>1269</v>
+        <v>1456</v>
       </c>
       <c r="C80" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D80">
         <v>583</v>
@@ -6988,7 +7062,7 @@
         <v>67</v>
       </c>
       <c r="C81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D81">
         <v>405</v>
@@ -7008,13 +7082,13 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B82" t="s">
-        <v>1353</v>
+        <v>1333</v>
       </c>
       <c r="C82" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D82">
         <v>28</v>
@@ -7040,10 +7114,10 @@
         <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>1354</v>
+        <v>1334</v>
       </c>
       <c r="C83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D83">
         <v>37</v>
@@ -7066,7 +7140,7 @@
         <v>69</v>
       </c>
       <c r="C84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D84">
         <v>14</v>
@@ -7089,13 +7163,13 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>1355</v>
+        <v>1335</v>
       </c>
       <c r="B85" t="s">
-        <v>1356</v>
+        <v>1336</v>
       </c>
       <c r="C85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D85">
         <v>12</v>
@@ -7118,10 +7192,10 @@
         <v>70</v>
       </c>
       <c r="B86" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="C86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D86">
         <v>27</v>
@@ -7147,10 +7221,10 @@
         <v>71</v>
       </c>
       <c r="B87" t="s">
-        <v>1358</v>
+        <v>1338</v>
       </c>
       <c r="C87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D87">
         <v>23</v>
@@ -7176,10 +7250,10 @@
         <v>72</v>
       </c>
       <c r="B88" t="s">
-        <v>1359</v>
+        <v>1339</v>
       </c>
       <c r="C88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D88">
         <v>20</v>
@@ -7208,10 +7282,10 @@
         <v>73</v>
       </c>
       <c r="B89" t="s">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="C89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D89">
         <v>20</v>
@@ -7231,13 +7305,13 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B90" t="s">
-        <v>1270</v>
+        <v>1250</v>
       </c>
       <c r="C90" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D90">
         <v>39</v>
@@ -7266,10 +7340,10 @@
         <v>74</v>
       </c>
       <c r="B91" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="C91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D91">
         <v>292</v>
@@ -7292,10 +7366,10 @@
         <v>75</v>
       </c>
       <c r="B92" t="s">
-        <v>1346</v>
+        <v>1326</v>
       </c>
       <c r="C92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D92">
         <v>22</v>
@@ -7315,10 +7389,10 @@
         <v>76</v>
       </c>
       <c r="B93" t="s">
-        <v>1455</v>
+        <v>1429</v>
       </c>
       <c r="C93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D93">
         <v>29</v>
@@ -7347,10 +7421,10 @@
         <v>77</v>
       </c>
       <c r="B94" t="s">
-        <v>1347</v>
+        <v>1327</v>
       </c>
       <c r="C94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D94">
         <v>45</v>
@@ -7379,10 +7453,10 @@
         <v>78</v>
       </c>
       <c r="B95" t="s">
-        <v>1456</v>
+        <v>1430</v>
       </c>
       <c r="C95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D95">
         <v>245</v>
@@ -7402,13 +7476,13 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B96" t="s">
-        <v>1421</v>
+        <v>1400</v>
       </c>
       <c r="C96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D96">
         <v>14</v>
@@ -7431,10 +7505,10 @@
         <v>79</v>
       </c>
       <c r="B97" t="s">
-        <v>1348</v>
+        <v>1328</v>
       </c>
       <c r="C97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D97">
         <v>15</v>
@@ -7460,13 +7534,13 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B98" t="s">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="C98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D98">
         <v>17</v>
@@ -7495,10 +7569,10 @@
         <v>80</v>
       </c>
       <c r="B99" t="s">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="C99" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D99">
         <v>16</v>
@@ -7527,10 +7601,10 @@
         <v>81</v>
       </c>
       <c r="B100" t="s">
-        <v>1422</v>
+        <v>1401</v>
       </c>
       <c r="C100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D100">
         <v>10</v>
@@ -7550,10 +7624,10 @@
         <v>82</v>
       </c>
       <c r="B101" t="s">
-        <v>1351</v>
+        <v>1331</v>
       </c>
       <c r="C101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D101">
         <v>48</v>
@@ -7582,10 +7656,10 @@
         <v>83</v>
       </c>
       <c r="B102" t="s">
-        <v>1271</v>
+        <v>1251</v>
       </c>
       <c r="C102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D102">
         <v>74</v>
@@ -7614,7 +7688,7 @@
         <v>84</v>
       </c>
       <c r="C103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D103">
         <v>48</v>
@@ -7634,10 +7708,10 @@
         <v>85</v>
       </c>
       <c r="B104" t="s">
-        <v>1352</v>
+        <v>1332</v>
       </c>
       <c r="C104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D104">
         <v>21</v>
@@ -7666,10 +7740,10 @@
         <v>86</v>
       </c>
       <c r="B105" t="s">
-        <v>1423</v>
+        <v>1402</v>
       </c>
       <c r="C105" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D105">
         <v>220</v>
@@ -7695,10 +7769,10 @@
         <v>87</v>
       </c>
       <c r="B106" t="s">
-        <v>1272</v>
+        <v>1252</v>
       </c>
       <c r="C106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D106">
         <v>28</v>
@@ -7718,7 +7792,7 @@
         <v>88</v>
       </c>
       <c r="C107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D107">
         <v>30</v>
@@ -7735,10 +7809,10 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C108" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D108">
         <v>14</v>
@@ -7758,7 +7832,7 @@
         <v>89</v>
       </c>
       <c r="C109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -7778,10 +7852,10 @@
         <v>90</v>
       </c>
       <c r="B110" t="s">
-        <v>1273</v>
+        <v>1253</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D110">
         <v>16</v>
@@ -7810,10 +7884,10 @@
         <v>91</v>
       </c>
       <c r="B111" t="s">
-        <v>1424</v>
+        <v>1403</v>
       </c>
       <c r="C111" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D111">
         <v>11</v>
@@ -7833,10 +7907,10 @@
         <v>92</v>
       </c>
       <c r="B112" t="s">
-        <v>1274</v>
+        <v>1254</v>
       </c>
       <c r="C112" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D112">
         <v>73</v>
@@ -7859,7 +7933,7 @@
         <v>93</v>
       </c>
       <c r="C113" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D113">
         <v>59</v>
@@ -7885,7 +7959,7 @@
         <v>94</v>
       </c>
       <c r="C114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D114">
         <v>72</v>
@@ -7911,13 +7985,13 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B115" t="s">
-        <v>1275</v>
+        <v>1255</v>
       </c>
       <c r="C115" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D115">
         <v>34</v>
@@ -7940,10 +8014,10 @@
         <v>95</v>
       </c>
       <c r="B116" t="s">
-        <v>1276</v>
+        <v>1256</v>
       </c>
       <c r="C116" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D116">
         <v>22</v>
@@ -7966,10 +8040,10 @@
         <v>96</v>
       </c>
       <c r="B117" t="s">
-        <v>1277</v>
+        <v>1257</v>
       </c>
       <c r="C117" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D117">
         <v>122</v>
@@ -7992,7 +8066,7 @@
         <v>97</v>
       </c>
       <c r="C118" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D118">
         <v>79</v>
@@ -8018,10 +8092,10 @@
         <v>98</v>
       </c>
       <c r="B119" t="s">
-        <v>1457</v>
+        <v>1431</v>
       </c>
       <c r="C119" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D119">
         <v>44</v>
@@ -8050,10 +8124,10 @@
         <v>99</v>
       </c>
       <c r="B120" t="s">
-        <v>1425</v>
+        <v>1404</v>
       </c>
       <c r="C120" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D120">
         <v>26</v>
@@ -8076,13 +8150,13 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>1278</v>
+        <v>1258</v>
       </c>
       <c r="B121" t="s">
-        <v>1426</v>
+        <v>1405</v>
       </c>
       <c r="C121" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D121">
         <v>22</v>
@@ -8105,10 +8179,10 @@
         <v>100</v>
       </c>
       <c r="B122" t="s">
-        <v>1427</v>
+        <v>1406</v>
       </c>
       <c r="C122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D122">
         <v>41</v>
@@ -8137,10 +8211,10 @@
         <v>101</v>
       </c>
       <c r="B123" t="s">
-        <v>1279</v>
+        <v>1259</v>
       </c>
       <c r="C123" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D123">
         <v>161</v>
@@ -8166,7 +8240,7 @@
         <v>102</v>
       </c>
       <c r="C124" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D124">
         <v>334</v>
@@ -8192,10 +8266,10 @@
         <v>103</v>
       </c>
       <c r="B125" t="s">
-        <v>1280</v>
+        <v>1260</v>
       </c>
       <c r="C125" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D125">
         <v>18</v>
@@ -8224,7 +8298,7 @@
         <v>104</v>
       </c>
       <c r="C126" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D126">
         <v>20</v>
@@ -8244,10 +8318,10 @@
         <v>105</v>
       </c>
       <c r="B127" t="s">
-        <v>1428</v>
+        <v>1407</v>
       </c>
       <c r="C127" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D127">
         <v>23</v>
@@ -8267,10 +8341,10 @@
         <v>106</v>
       </c>
       <c r="B128" t="s">
-        <v>1281</v>
+        <v>1261</v>
       </c>
       <c r="C128" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D128">
         <v>16</v>
@@ -8294,15 +8368,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
         <v>107</v>
       </c>
       <c r="B129" t="s">
-        <v>1401</v>
+        <v>1380</v>
       </c>
       <c r="C129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D129">
         <v>39</v>
@@ -8320,15 +8394,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
         <v>108</v>
       </c>
       <c r="B130" t="s">
-        <v>1402</v>
+        <v>1381</v>
       </c>
       <c r="C130" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D130">
         <v>46</v>
@@ -8340,15 +8414,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B131" t="s">
-        <v>1403</v>
+        <v>1382</v>
       </c>
       <c r="C131" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D131">
         <v>27</v>
@@ -8363,15 +8437,15 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B132" t="s">
-        <v>1404</v>
+        <v>1383</v>
       </c>
       <c r="C132" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D132">
         <v>78</v>
@@ -8386,15 +8460,15 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B133" t="s">
-        <v>1405</v>
+        <v>1384</v>
       </c>
       <c r="C133" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D133">
         <v>11</v>
@@ -8412,15 +8486,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B134" t="s">
-        <v>1406</v>
+        <v>1385</v>
       </c>
       <c r="C134" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D134">
         <v>157</v>
@@ -8438,12 +8512,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C135" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D135">
         <v>14</v>
@@ -8467,15 +8541,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:11" s="2" customFormat="1">
       <c r="A136" t="s">
         <v>109</v>
       </c>
       <c r="B136" t="s">
-        <v>1407</v>
+        <v>1386</v>
       </c>
       <c r="C136" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D136">
         <v>15</v>
@@ -8498,16 +8572,17 @@
       <c r="J136">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" s="2" customFormat="1">
+      <c r="K136"/>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>1408</v>
+        <v>1387</v>
       </c>
       <c r="C137" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D137" s="2">
         <v>17</v>
@@ -8524,19 +8599,21 @@
       <c r="H137" s="2">
         <v>0.5</v>
       </c>
+      <c r="I137" s="2"/>
       <c r="J137" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137" s="2"/>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1282</v>
+        <v>1262</v>
       </c>
       <c r="C138" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D138">
         <v>16</v>
@@ -8557,13 +8634,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:11">
       <c r="A139" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B139" s="4"/>
       <c r="C139" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D139">
         <v>10</v>
@@ -8581,13 +8658,13 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:11">
       <c r="A140" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B140" s="4"/>
       <c r="C140" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D140">
         <v>25</v>
@@ -8605,13 +8682,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:11">
       <c r="A141" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D141">
         <v>40</v>
@@ -8629,13 +8706,13 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:11">
       <c r="A142" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D142">
         <v>61</v>
@@ -8656,15 +8733,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:11">
       <c r="A143" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>1283</v>
+        <v>1263</v>
       </c>
       <c r="C143" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D143">
         <v>30</v>
@@ -8679,15 +8756,15 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:11">
       <c r="A144" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>1411</v>
+        <v>1390</v>
       </c>
       <c r="C144" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D144">
         <v>23</v>
@@ -8713,11 +8790,11 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D145">
         <v>29</v>
@@ -8740,13 +8817,13 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>1284</v>
+        <v>1264</v>
       </c>
       <c r="C146" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D146">
         <v>25</v>
@@ -8772,7 +8849,7 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B147" s="4"/>
       <c r="D147">
@@ -8790,13 +8867,13 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>1412</v>
+        <v>1391</v>
       </c>
       <c r="C148" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D148">
         <v>27</v>
@@ -8813,13 +8890,13 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>1285</v>
+        <v>1265</v>
       </c>
       <c r="C149" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D149">
         <v>18</v>
@@ -8842,13 +8919,13 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>1414</v>
+        <v>1393</v>
       </c>
       <c r="C150" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D150">
         <v>198</v>
@@ -8874,13 +8951,13 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>1413</v>
+        <v>1392</v>
       </c>
       <c r="C151" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D151">
         <v>25</v>
@@ -8906,11 +8983,11 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B152" s="4"/>
       <c r="C152" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D152">
         <v>14</v>
@@ -8936,11 +9013,11 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B153" s="4"/>
       <c r="C153" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D153">
         <v>25</v>
@@ -8963,13 +9040,13 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="4" t="s">
-        <v>1286</v>
+        <v>1266</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>1287</v>
+        <v>1267</v>
       </c>
       <c r="C154" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D154">
         <v>22</v>
@@ -8986,13 +9063,13 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>1288</v>
+        <v>1268</v>
       </c>
       <c r="C155" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D155">
         <v>21</v>
@@ -9015,13 +9092,13 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>1415</v>
+        <v>1394</v>
       </c>
       <c r="C156" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D156">
         <v>41</v>
@@ -9044,13 +9121,13 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>1416</v>
+        <v>1395</v>
       </c>
       <c r="C157" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D157">
         <v>42</v>
@@ -9070,13 +9147,13 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>1289</v>
+        <v>1269</v>
       </c>
       <c r="C158" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D158">
         <v>20</v>
@@ -9102,13 +9179,13 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>1290</v>
+        <v>1270</v>
       </c>
       <c r="C159" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D159">
         <v>23</v>
@@ -9131,11 +9208,11 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D160">
         <v>22</v>
@@ -9155,11 +9232,11 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D161">
         <v>25</v>
@@ -9176,13 +9253,13 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>1291</v>
+        <v>1271</v>
       </c>
       <c r="C162" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D162">
         <v>20</v>
@@ -9199,13 +9276,13 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>1417</v>
+        <v>1396</v>
       </c>
       <c r="C163" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D163">
         <v>14</v>
@@ -9225,13 +9302,13 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>1418</v>
+        <v>1397</v>
       </c>
       <c r="C164" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D164">
         <v>16</v>
@@ -9257,13 +9334,13 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>1419</v>
+        <v>1398</v>
       </c>
       <c r="C165" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D165">
         <v>25</v>
@@ -9289,11 +9366,11 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D166">
         <v>25</v>
@@ -9319,13 +9396,13 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>1420</v>
+        <v>1399</v>
       </c>
       <c r="C167" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D167">
         <v>245</v>
@@ -9345,11 +9422,11 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D168">
         <v>15</v>
@@ -9369,13 +9446,13 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>1292</v>
+        <v>1272</v>
       </c>
       <c r="C169" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D169">
         <v>35</v>
@@ -9395,11 +9472,11 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D170">
         <v>239</v>
@@ -9419,11 +9496,11 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B171" s="4"/>
       <c r="C171" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D171">
         <v>30</v>
@@ -9443,11 +9520,11 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D172">
         <v>28</v>
@@ -9464,13 +9541,13 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>1293</v>
+        <v>1273</v>
       </c>
       <c r="C173" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D173">
         <v>17</v>
@@ -9493,11 +9570,11 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D174">
         <v>18</v>
@@ -9514,11 +9591,11 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D175">
         <v>48</v>
@@ -9535,11 +9612,11 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D176">
         <v>18</v>
@@ -9556,11 +9633,11 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D177">
         <v>18</v>
@@ -9580,13 +9657,13 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>1294</v>
+        <v>1274</v>
       </c>
       <c r="C178" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D178">
         <v>19</v>
@@ -9600,13 +9677,13 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>1295</v>
+        <v>1275</v>
       </c>
       <c r="C179" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D179">
         <v>37</v>
@@ -9635,7 +9712,7 @@
         <v>110</v>
       </c>
       <c r="C180" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D180">
         <v>261</v>
@@ -9655,13 +9732,13 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B181" t="s">
-        <v>1296</v>
+        <v>1276</v>
       </c>
       <c r="C181" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D181">
         <v>19</v>
@@ -9687,10 +9764,10 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C182" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D182">
         <v>30</v>
@@ -9716,13 +9793,13 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B183" t="s">
-        <v>1297</v>
+        <v>1277</v>
       </c>
       <c r="C183" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D183">
         <v>26</v>
@@ -9748,13 +9825,13 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B184" t="s">
-        <v>1298</v>
+        <v>1278</v>
       </c>
       <c r="C184" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D184">
         <v>28</v>
@@ -9777,13 +9854,13 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B185" t="s">
-        <v>1299</v>
+        <v>1279</v>
       </c>
       <c r="C185" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D185">
         <v>25</v>
@@ -9803,13 +9880,13 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B186" t="s">
-        <v>1300</v>
+        <v>1280</v>
       </c>
       <c r="C186" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D186">
         <v>121</v>
@@ -9835,10 +9912,10 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C187" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D187">
         <v>29</v>
@@ -9855,13 +9932,13 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>1301</v>
+        <v>1281</v>
       </c>
       <c r="C188" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D188">
         <v>114</v>
@@ -9881,13 +9958,13 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="4" t="s">
-        <v>1303</v>
+        <v>1283</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>1302</v>
+        <v>1282</v>
       </c>
       <c r="C189" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D189">
         <v>37</v>
@@ -9907,11 +9984,11 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D190">
         <v>15</v>
@@ -9931,13 +10008,13 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>1334</v>
+        <v>1314</v>
       </c>
       <c r="C191" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D191">
         <v>6</v>
@@ -9954,13 +10031,13 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>1335</v>
+        <v>1315</v>
       </c>
       <c r="C192" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D192">
         <v>13</v>
@@ -9975,15 +10052,15 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:11">
       <c r="A193" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>1336</v>
+        <v>1316</v>
       </c>
       <c r="C193" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D193">
         <v>16</v>
@@ -9998,15 +10075,15 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:11">
       <c r="A194" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>1304</v>
+        <v>1284</v>
       </c>
       <c r="C194" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D194">
         <v>18</v>
@@ -10021,15 +10098,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:11">
       <c r="A195" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>1337</v>
+        <v>1317</v>
       </c>
       <c r="C195" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D195">
         <v>17</v>
@@ -10044,13 +10121,13 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:11">
       <c r="A196" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D196">
         <v>10</v>
@@ -10065,15 +10142,15 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:11">
       <c r="A197" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>1305</v>
+        <v>1285</v>
       </c>
       <c r="C197" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D197">
         <v>13</v>
@@ -10094,15 +10171,15 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:11">
       <c r="A198" s="4" t="s">
-        <v>1307</v>
+        <v>1287</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>1306</v>
+        <v>1286</v>
       </c>
       <c r="C198" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D198">
         <v>39</v>
@@ -10117,15 +10194,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:11">
       <c r="A199" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>1308</v>
+        <v>1288</v>
       </c>
       <c r="C199" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D199">
         <v>22</v>
@@ -10140,15 +10217,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:11">
       <c r="A200" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>1309</v>
+        <v>1289</v>
       </c>
       <c r="C200" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D200">
         <v>24</v>
@@ -10163,15 +10240,15 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:11">
       <c r="A201" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>1338</v>
+        <v>1318</v>
       </c>
       <c r="C201" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D201">
         <v>16</v>
@@ -10186,15 +10263,15 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:11">
       <c r="A202" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>1339</v>
+        <v>1319</v>
       </c>
       <c r="C202" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D202">
         <v>340</v>
@@ -10212,15 +10289,15 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:11">
       <c r="A203" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>1340</v>
+        <v>1320</v>
       </c>
       <c r="C203" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D203">
         <v>95</v>
@@ -10238,15 +10315,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:11">
       <c r="A204" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>1310</v>
+        <v>1290</v>
       </c>
       <c r="C204" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D204">
         <v>304</v>
@@ -10267,15 +10344,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:11">
       <c r="A205" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>1341</v>
+        <v>1321</v>
       </c>
       <c r="C205" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D205">
         <v>274</v>
@@ -10293,15 +10370,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:11">
       <c r="A206" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>1342</v>
+        <v>1322</v>
       </c>
       <c r="C206" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D206">
         <v>39</v>
@@ -10319,15 +10396,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:11">
       <c r="A207" s="4" t="s">
-        <v>1311</v>
+        <v>1291</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>1343</v>
+        <v>1323</v>
       </c>
       <c r="C207" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D207">
         <v>32</v>
@@ -10348,15 +10425,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:11" s="2" customFormat="1">
       <c r="A208" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>1344</v>
+        <v>1324</v>
       </c>
       <c r="C208" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D208">
         <v>57</v>
@@ -10373,16 +10450,19 @@
       <c r="H208">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" s="2" customFormat="1">
+      <c r="I208"/>
+      <c r="J208"/>
+      <c r="K208"/>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>1312</v>
+        <v>1292</v>
       </c>
       <c r="C209" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D209" s="2">
         <v>34</v>
@@ -10405,16 +10485,17 @@
       <c r="J209" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209" s="2"/>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>1313</v>
+        <v>1293</v>
       </c>
       <c r="C210" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D210">
         <v>30</v>
@@ -10435,15 +10516,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:11">
       <c r="A211" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>1314</v>
+        <v>1294</v>
       </c>
       <c r="C211" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D211">
         <v>38</v>
@@ -10467,15 +10548,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:11">
       <c r="A212" t="s">
         <v>111</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>1429</v>
+        <v>1457</v>
       </c>
       <c r="C212" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D212">
         <v>24</v>
@@ -10496,12 +10577,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:11">
       <c r="A213" t="s">
-        <v>374</v>
+        <v>373</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>1458</v>
       </c>
       <c r="C213" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D213">
         <v>72</v>
@@ -10519,15 +10603,15 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:11">
       <c r="A214" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>1315</v>
+        <v>1295</v>
       </c>
       <c r="C214" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D214">
         <v>292</v>
@@ -10545,15 +10629,15 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:11">
       <c r="A215" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>1317</v>
+        <v>1297</v>
       </c>
       <c r="C215" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D215">
         <v>56</v>
@@ -10577,15 +10661,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:11">
       <c r="A216" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>1316</v>
+        <v>1296</v>
       </c>
       <c r="C216" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D216">
         <v>97</v>
@@ -10606,15 +10690,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:11">
       <c r="A217" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>1321</v>
+        <v>1301</v>
       </c>
       <c r="C217" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D217">
         <v>27</v>
@@ -10626,15 +10710,15 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:11">
       <c r="A218" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>1318</v>
+        <v>1298</v>
       </c>
       <c r="C218" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D218">
         <v>43</v>
@@ -10655,15 +10739,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:11">
       <c r="A219" t="s">
-        <v>1319</v>
+        <v>1299</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>1320</v>
+        <v>1300</v>
       </c>
       <c r="C219" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D219">
         <v>18</v>
@@ -10687,15 +10771,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:11">
       <c r="A220" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>1322</v>
+        <v>1302</v>
       </c>
       <c r="C220" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D220">
         <v>16</v>
@@ -10719,15 +10803,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:11">
       <c r="A221" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>1323</v>
+        <v>1303</v>
       </c>
       <c r="C221" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D221">
         <v>17</v>
@@ -10751,12 +10835,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:11">
       <c r="A222" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>1324</v>
+        <v>1304</v>
       </c>
       <c r="D222">
         <v>18</v>
@@ -10774,15 +10858,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:11">
       <c r="A223" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>1325</v>
+        <v>1305</v>
       </c>
       <c r="C223" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D223">
         <v>29</v>
@@ -10800,15 +10884,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:11">
       <c r="A224" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>1326</v>
+        <v>1306</v>
       </c>
       <c r="C224" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D224">
         <v>38</v>
@@ -10834,13 +10918,13 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>1327</v>
+        <v>1307</v>
       </c>
       <c r="C225" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D225">
         <v>31</v>
@@ -10866,13 +10950,13 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>1328</v>
+        <v>1308</v>
       </c>
       <c r="C226" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D226">
         <v>36</v>
@@ -10898,10 +10982,10 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>1329</v>
+        <v>1309</v>
       </c>
       <c r="C227" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D227">
         <v>16</v>
@@ -10924,13 +11008,13 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>1330</v>
+        <v>1310</v>
       </c>
       <c r="C228" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D228">
         <v>34</v>
@@ -10947,13 +11031,13 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>1331</v>
+        <v>1311</v>
       </c>
       <c r="C229" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D229">
         <v>29</v>
@@ -10979,13 +11063,13 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>1332</v>
+        <v>1312</v>
       </c>
       <c r="C230" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D230">
         <v>38</v>
@@ -11005,13 +11089,13 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>1333</v>
+        <v>1313</v>
       </c>
       <c r="C231" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D231">
         <v>48</v>
@@ -11034,10 +11118,10 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C232" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D232">
         <v>45</v>
@@ -11063,13 +11147,13 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B233" t="s">
-        <v>1244</v>
+        <v>1229</v>
       </c>
       <c r="C233" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D233">
         <v>70</v>
@@ -11095,13 +11179,13 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B234" t="s">
-        <v>1245</v>
+        <v>1230</v>
       </c>
       <c r="C234" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D234">
         <v>53</v>
@@ -11124,13 +11208,13 @@
     </row>
     <row r="235" spans="1:10">
       <c r="A235" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B235" t="s">
-        <v>1246</v>
+        <v>1231</v>
       </c>
       <c r="C235" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D235">
         <v>24</v>
@@ -11144,13 +11228,13 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B236" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
       <c r="C236" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D236">
         <v>20</v>
@@ -11176,13 +11260,13 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B237" t="s">
-        <v>1248</v>
+        <v>1233</v>
       </c>
       <c r="C237" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D237">
         <v>50</v>
@@ -11205,13 +11289,13 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B238" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="C238" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D238">
         <v>280</v>
@@ -11228,10 +11312,10 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C239" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D239">
         <v>62</v>
@@ -11248,13 +11332,13 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B240" t="s">
-        <v>1250</v>
+        <v>1235</v>
       </c>
       <c r="C240" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D240">
         <v>48</v>
@@ -11280,13 +11364,13 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B241" t="s">
-        <v>1251</v>
+        <v>1236</v>
       </c>
       <c r="C241" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D241">
         <v>273</v>
@@ -11312,13 +11396,13 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B242" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
       <c r="C242" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D242">
         <v>67</v>
@@ -11338,13 +11422,13 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B243" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="C243" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D243">
         <v>66</v>
@@ -11367,13 +11451,13 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B244" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="C244" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D244">
         <v>48</v>
@@ -11396,13 +11480,13 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B245" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="C245" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D245">
         <v>285</v>
@@ -11425,13 +11509,13 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="B246" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="C246" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D246">
         <v>68</v>
@@ -11457,13 +11541,13 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="B247" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="C247" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D247">
         <v>14</v>
@@ -11483,13 +11567,13 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B248" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="C248" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D248">
         <v>13</v>
@@ -11509,10 +11593,10 @@
         <v>112</v>
       </c>
       <c r="B249" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="C249" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D249">
         <v>38</v>
@@ -11538,13 +11622,13 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B250" t="s">
-        <v>1233</v>
+        <v>1459</v>
       </c>
       <c r="C250" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D250">
         <v>74</v>
@@ -11564,13 +11648,13 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B251" t="s">
-        <v>1234</v>
+        <v>1460</v>
       </c>
       <c r="C251" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D251">
         <v>101</v>
@@ -11596,13 +11680,13 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B252" t="s">
-        <v>1235</v>
+        <v>1461</v>
       </c>
       <c r="C252" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D252">
         <v>58</v>
@@ -11619,13 +11703,13 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B253" t="s">
-        <v>1236</v>
+        <v>1462</v>
       </c>
       <c r="C253" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D253">
         <v>40</v>
@@ -11642,13 +11726,13 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B254" t="s">
-        <v>1237</v>
+        <v>1463</v>
       </c>
       <c r="C254" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D254">
         <v>106</v>
@@ -11665,13 +11749,13 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B255" t="s">
-        <v>1238</v>
+        <v>1223</v>
       </c>
       <c r="C255" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D255">
         <v>26</v>
@@ -11688,13 +11772,13 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256" t="s">
-        <v>1239</v>
+        <v>1224</v>
       </c>
       <c r="B256" t="s">
-        <v>1240</v>
+        <v>1225</v>
       </c>
       <c r="C256" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D256">
         <v>39</v>
@@ -11720,10 +11804,10 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C257" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D257">
         <v>132</v>
@@ -11746,13 +11830,13 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B258" t="s">
-        <v>1241</v>
+        <v>1226</v>
       </c>
       <c r="C258" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D258">
         <v>38</v>
@@ -11769,13 +11853,13 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B259" t="s">
-        <v>1242</v>
+        <v>1227</v>
       </c>
       <c r="C259" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D259">
         <v>38</v>
@@ -11798,13 +11882,13 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B260" t="s">
-        <v>1243</v>
+        <v>1228</v>
       </c>
       <c r="C260" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D260">
         <v>48</v>
@@ -11830,13 +11914,13 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B261" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="C261" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D261">
         <v>45</v>
@@ -11862,13 +11946,13 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B262" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="C262" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D262">
         <v>260</v>
@@ -11894,13 +11978,13 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B263" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="C263" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D263">
         <v>42</v>
@@ -11917,13 +12001,13 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B264" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="C264" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D264">
         <v>62</v>
@@ -11949,13 +12033,13 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B265" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="C265" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D265">
         <v>56</v>
@@ -11981,13 +12065,13 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B266" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="C266" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D266">
         <v>756</v>
@@ -12010,13 +12094,10 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267" t="s">
-        <v>422</v>
-      </c>
-      <c r="B267" t="s">
-        <v>1220</v>
+        <v>421</v>
       </c>
       <c r="C267" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D267">
         <v>897</v>
@@ -12039,13 +12120,13 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B268" t="s">
-        <v>1221</v>
+        <v>1464</v>
       </c>
       <c r="C268" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D268">
         <v>827</v>
@@ -12068,10 +12149,13 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269" t="s">
-        <v>426</v>
+        <v>425</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1465</v>
       </c>
       <c r="C269" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D269">
         <v>896</v>
@@ -12094,13 +12178,13 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B270" t="s">
-        <v>1222</v>
+        <v>1466</v>
       </c>
       <c r="C270" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D270">
         <v>729</v>
@@ -12123,13 +12207,13 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B271" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="C271" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D271">
         <v>900</v>
@@ -12152,10 +12236,10 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C272" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D272">
         <v>900</v>
@@ -12178,13 +12262,13 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B273" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="C273" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D273">
         <v>900</v>
@@ -12207,13 +12291,13 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B274" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="C274" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D274">
         <v>900</v>
@@ -12236,13 +12320,13 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B275" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="C275" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D275">
         <v>900</v>
@@ -12265,13 +12349,13 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B276" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="C276" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D276">
         <v>900</v>
@@ -12294,13 +12378,13 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B277" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="C277" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D277">
         <v>900</v>
@@ -12323,13 +12407,13 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B278" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="C278" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D278">
         <v>900</v>
@@ -12352,10 +12436,10 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C279" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D279">
         <v>900</v>
@@ -12381,13 +12465,13 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B280" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="C280" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D280">
         <v>144</v>
@@ -12413,13 +12497,13 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B281" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="C281" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D281">
         <v>85</v>
@@ -12445,13 +12529,13 @@
     </row>
     <row r="282" spans="1:10" ht="16">
       <c r="A282" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="C282" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D282">
         <v>118</v>
@@ -12477,13 +12561,13 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B283" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="C283" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D283">
         <v>167</v>
@@ -12506,13 +12590,13 @@
     </row>
     <row r="284" spans="1:10" ht="16">
       <c r="A284" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="C284" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D284">
         <v>127</v>
@@ -12538,13 +12622,13 @@
     </row>
     <row r="285" spans="1:10" ht="16">
       <c r="A285" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="C285" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D285">
         <v>182</v>
@@ -12570,13 +12654,13 @@
     </row>
     <row r="286" spans="1:10" ht="16">
       <c r="A286" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="C286" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D286">
         <v>340</v>
@@ -12602,13 +12686,13 @@
     </row>
     <row r="287" spans="1:10" ht="16">
       <c r="A287" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="C287" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D287">
         <v>338</v>
@@ -12631,13 +12715,13 @@
     </row>
     <row r="288" spans="1:10" ht="16">
       <c r="A288" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="C288" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D288">
         <v>230</v>
@@ -12660,13 +12744,13 @@
     </row>
     <row r="289" spans="1:10" ht="16">
       <c r="A289" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="C289" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D289">
         <v>219</v>
@@ -12692,13 +12776,13 @@
     </row>
     <row r="290" spans="1:10" ht="16">
       <c r="A290" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="C290" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D290">
         <v>122</v>
@@ -12724,13 +12808,13 @@
     </row>
     <row r="291" spans="1:10" ht="16">
       <c r="A291" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="C291" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D291">
         <v>141</v>
@@ -12753,13 +12837,13 @@
     </row>
     <row r="292" spans="1:10" ht="16">
       <c r="A292" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="C292" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D292">
         <v>199</v>
@@ -12785,13 +12869,13 @@
     </row>
     <row r="293" spans="1:10" ht="16">
       <c r="A293" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="C293" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D293">
         <v>218</v>
@@ -12817,13 +12901,13 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B294" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="C294" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D294">
         <v>94</v>
@@ -12849,13 +12933,13 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B295" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="C295" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D295">
         <v>394</v>
@@ -12881,13 +12965,13 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B296" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="C296" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D296">
         <v>139</v>
@@ -12913,13 +12997,13 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B297" t="s">
-        <v>1461</v>
+        <v>1435</v>
       </c>
       <c r="C297" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D297">
         <v>260</v>
@@ -12945,13 +13029,13 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B298" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="C298" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D298">
         <v>409</v>
@@ -12977,13 +13061,13 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B299" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="C299" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D299">
         <v>176</v>
@@ -13009,13 +13093,13 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B300" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="C300" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D300">
         <v>158</v>
@@ -13038,13 +13122,13 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B301" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="C301" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D301">
         <v>103</v>
@@ -13067,13 +13151,13 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B302" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="C302" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D302">
         <v>97</v>
@@ -13096,13 +13180,13 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B303" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="C303" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D303">
         <v>115</v>
@@ -13125,13 +13209,13 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B304" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="C304" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D304">
         <v>112</v>
@@ -13154,13 +13238,13 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B305" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="C305" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D305">
         <v>112</v>
@@ -13183,13 +13267,13 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B306" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C306" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D306">
         <v>121</v>
@@ -13212,13 +13296,13 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B307" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="C307" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D307">
         <v>267</v>
@@ -13244,13 +13328,13 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B308" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="C308" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D308">
         <v>67</v>
@@ -13273,13 +13357,13 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B309" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="C309" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D309">
         <v>81</v>
@@ -13305,13 +13389,13 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B310" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="C310" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D310">
         <v>118</v>
@@ -13334,13 +13418,13 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="B311" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="C311" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D311">
         <v>230</v>
@@ -13363,13 +13447,13 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B312" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="C312" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D312">
         <v>97</v>
@@ -13395,13 +13479,13 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B313" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="C313" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D313">
         <v>85</v>
@@ -13427,13 +13511,13 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B314" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="C314" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D314">
         <v>185</v>
@@ -13456,13 +13540,13 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B315" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="C315" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D315">
         <v>335</v>
@@ -13485,13 +13569,13 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B316" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="C316" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D316">
         <v>137</v>
@@ -13514,13 +13598,13 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B317" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="C317" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D317">
         <v>467</v>
@@ -13543,13 +13627,13 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B318" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="C318" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D318">
         <v>109</v>
@@ -13572,13 +13656,13 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B319" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="C319" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D319">
         <v>111</v>
@@ -13601,13 +13685,13 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B320" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="C320" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D320">
         <v>116</v>
@@ -13630,13 +13714,13 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B321" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="C321" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D321">
         <v>122</v>
@@ -13659,10 +13743,10 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B322" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="D322">
         <v>124</v>
@@ -13682,13 +13766,13 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B323" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="C323" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D323">
         <v>164</v>
@@ -13711,13 +13795,13 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B324" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="C324" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D324">
         <v>178</v>
@@ -13743,13 +13827,13 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B325" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="C325" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D325">
         <v>167</v>
@@ -13769,13 +13853,13 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B326" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="C326" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D326">
         <v>44</v>
@@ -13795,13 +13879,13 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B327" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="C327" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D327">
         <v>99</v>
@@ -13827,13 +13911,13 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B328" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="C328" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D328">
         <v>124</v>
@@ -13856,13 +13940,13 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B329" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="C329" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D329">
         <v>123</v>
@@ -13885,13 +13969,13 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B330" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="C330" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D330">
         <v>103</v>
@@ -13914,13 +13998,13 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B331" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="C331" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D331">
         <v>92</v>
@@ -13943,13 +14027,13 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B332" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="C332" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D332">
         <v>187</v>
@@ -13975,13 +14059,13 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B333" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="C333" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D333">
         <v>126</v>
@@ -14004,13 +14088,13 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B334" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="C334" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D334">
         <v>89</v>
@@ -14033,13 +14117,13 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B335" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="C335" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D335">
         <v>114</v>
@@ -14062,13 +14146,13 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B336" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="C336" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D336">
         <v>94</v>
@@ -14091,13 +14175,13 @@
     </row>
     <row r="337" spans="1:9">
       <c r="A337" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B337" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="C337" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D337">
         <v>75</v>
@@ -14117,13 +14201,13 @@
     </row>
     <row r="338" spans="1:9">
       <c r="A338" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B338" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="C338" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D338">
         <v>44</v>
@@ -14146,13 +14230,13 @@
     </row>
     <row r="339" spans="1:9">
       <c r="A339" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B339" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="C339" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D339">
         <v>25</v>
@@ -14172,13 +14256,13 @@
     </row>
     <row r="340" spans="1:9">
       <c r="A340" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B340" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="C340" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D340">
         <v>814</v>
@@ -14201,13 +14285,13 @@
     </row>
     <row r="341" spans="1:9">
       <c r="A341" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B341" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="C341" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D341">
         <v>749</v>
@@ -14230,13 +14314,13 @@
     </row>
     <row r="342" spans="1:9">
       <c r="A342" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B342" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="C342" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D342">
         <v>326</v>
@@ -14256,13 +14340,13 @@
     </row>
     <row r="343" spans="1:9">
       <c r="A343" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B343" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="C343" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D343">
         <v>517</v>
@@ -14282,13 +14366,13 @@
     </row>
     <row r="344" spans="1:9">
       <c r="A344" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B344" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="C344" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D344">
         <v>416</v>
@@ -14311,13 +14395,13 @@
     </row>
     <row r="345" spans="1:9">
       <c r="A345" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B345" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="C345" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D345">
         <v>318</v>
@@ -14337,13 +14421,13 @@
     </row>
     <row r="346" spans="1:9">
       <c r="A346" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B346" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="C346" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D346">
         <v>114</v>
@@ -14366,13 +14450,13 @@
     </row>
     <row r="347" spans="1:9">
       <c r="A347" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B347" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="C347" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D347">
         <v>357</v>
@@ -14395,13 +14479,13 @@
     </row>
     <row r="348" spans="1:9">
       <c r="A348" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B348" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="C348" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D348">
         <v>136</v>
@@ -14424,13 +14508,13 @@
     </row>
     <row r="349" spans="1:9">
       <c r="A349" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B349" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="C349" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D349">
         <v>553</v>
@@ -14453,13 +14537,13 @@
     </row>
     <row r="350" spans="1:9">
       <c r="A350" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B350" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="C350" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D350">
         <v>585</v>
@@ -14479,10 +14563,10 @@
     </row>
     <row r="351" spans="1:9">
       <c r="A351" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B351" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="D351">
         <v>153</v>
@@ -14502,13 +14586,13 @@
     </row>
     <row r="352" spans="1:9">
       <c r="A352" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B352" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="C352" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D352">
         <v>137</v>
@@ -14528,10 +14612,10 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B353" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="D353">
         <v>369</v>
@@ -14554,13 +14638,13 @@
     </row>
     <row r="354" spans="1:10">
       <c r="A354" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B354" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="C354" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D354">
         <v>239</v>
@@ -14580,13 +14664,13 @@
     </row>
     <row r="355" spans="1:10">
       <c r="A355" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B355" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="C355" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D355">
         <v>226</v>
@@ -14609,13 +14693,13 @@
     </row>
     <row r="356" spans="1:10">
       <c r="A356" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B356" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="C356" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D356">
         <v>535</v>
@@ -14638,13 +14722,13 @@
     </row>
     <row r="357" spans="1:10">
       <c r="A357" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B357" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="C357" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D357">
         <v>342</v>
@@ -14667,13 +14751,13 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B358" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="C358" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D358">
         <v>130</v>
@@ -14696,13 +14780,13 @@
     </row>
     <row r="359" spans="1:10">
       <c r="A359" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="B359" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="C359" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D359">
         <v>90</v>
@@ -14728,13 +14812,13 @@
     </row>
     <row r="360" spans="1:10">
       <c r="A360" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B360" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="C360" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D360">
         <v>111</v>
@@ -14757,13 +14841,13 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="B361" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="C361" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D361">
         <v>119</v>
@@ -14786,13 +14870,13 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B362" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="C362" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D362">
         <v>70</v>
@@ -14815,13 +14899,13 @@
     </row>
     <row r="363" spans="1:10">
       <c r="A363" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B363" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="C363" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D363">
         <v>113</v>
@@ -14844,13 +14928,13 @@
     </row>
     <row r="364" spans="1:10">
       <c r="A364" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B364" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="C364" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D364">
         <v>96</v>
@@ -14876,13 +14960,13 @@
     </row>
     <row r="365" spans="1:10">
       <c r="A365" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B365" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="C365" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D365">
         <v>115</v>
@@ -14905,10 +14989,10 @@
     </row>
     <row r="366" spans="1:10">
       <c r="A366" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B366" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="D366">
         <v>96</v>
@@ -14931,13 +15015,13 @@
     </row>
     <row r="367" spans="1:10">
       <c r="A367" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B367" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="C367" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D367">
         <v>87</v>
@@ -14960,13 +15044,13 @@
     </row>
     <row r="368" spans="1:10">
       <c r="A368" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B368" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="C368" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D368">
         <v>94</v>
@@ -14989,13 +15073,13 @@
     </row>
     <row r="369" spans="1:10">
       <c r="A369" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B369" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="C369" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D369">
         <v>83</v>
@@ -15018,13 +15102,13 @@
     </row>
     <row r="370" spans="1:10">
       <c r="A370" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B370" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="C370" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D370">
         <v>108</v>
@@ -15050,13 +15134,13 @@
     </row>
     <row r="371" spans="1:10">
       <c r="A371" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B371" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="C371" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D371">
         <v>98</v>
@@ -15079,13 +15163,13 @@
     </row>
     <row r="372" spans="1:10">
       <c r="A372" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B372" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="C372" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D372">
         <v>136</v>
@@ -15111,13 +15195,13 @@
     </row>
     <row r="373" spans="1:10">
       <c r="A373" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="B373" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="C373" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D373">
         <v>208</v>
@@ -15140,10 +15224,10 @@
     </row>
     <row r="374" spans="1:10">
       <c r="A374" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B374" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="D374">
         <v>71</v>
@@ -15166,13 +15250,13 @@
     </row>
     <row r="375" spans="1:10">
       <c r="A375" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B375" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="C375" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D375">
         <v>144</v>
@@ -15195,13 +15279,13 @@
     </row>
     <row r="376" spans="1:10">
       <c r="A376" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="B376" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="C376" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D376">
         <v>124</v>
@@ -15227,10 +15311,10 @@
     </row>
     <row r="377" spans="1:10">
       <c r="A377" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B377" t="s">
-        <v>1093</v>
+        <v>1467</v>
       </c>
       <c r="D377">
         <v>151</v>
@@ -15253,10 +15337,10 @@
     </row>
     <row r="378" spans="1:10">
       <c r="A378" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B378" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="D378">
         <v>116</v>
@@ -15279,13 +15363,13 @@
     </row>
     <row r="379" spans="1:10">
       <c r="A379" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B379" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="C379" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D379">
         <v>80</v>
@@ -15308,13 +15392,13 @@
     </row>
     <row r="380" spans="1:10">
       <c r="A380" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B380" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="C380" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D380">
         <v>87</v>
@@ -15340,13 +15424,13 @@
     </row>
     <row r="381" spans="1:10">
       <c r="A381" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B381" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="C381" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D381">
         <v>111</v>
@@ -15372,13 +15456,13 @@
     </row>
     <row r="382" spans="1:10">
       <c r="A382" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B382" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="C382" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D382">
         <v>104</v>
@@ -15401,13 +15485,13 @@
     </row>
     <row r="383" spans="1:10">
       <c r="A383" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B383" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="C383" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D383">
         <v>97</v>
@@ -15430,13 +15514,13 @@
     </row>
     <row r="384" spans="1:10">
       <c r="A384" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B384" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="C384" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D384">
         <v>126</v>
@@ -15459,13 +15543,13 @@
     </row>
     <row r="385" spans="1:10">
       <c r="A385" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B385" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="C385" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D385">
         <v>100</v>
@@ -15488,13 +15572,13 @@
     </row>
     <row r="386" spans="1:10">
       <c r="A386" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B386" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="C386" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D386">
         <v>73</v>
@@ -15517,13 +15601,13 @@
     </row>
     <row r="387" spans="1:10">
       <c r="A387" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B387" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="C387" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D387">
         <v>166</v>
@@ -15549,10 +15633,10 @@
     </row>
     <row r="388" spans="1:10">
       <c r="A388" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B388" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="D388">
         <v>156</v>
@@ -15578,13 +15662,13 @@
     </row>
     <row r="389" spans="1:10">
       <c r="A389" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B389" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="C389" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D389">
         <v>110</v>
@@ -15607,13 +15691,13 @@
     </row>
     <row r="390" spans="1:10">
       <c r="A390" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B390" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="C390" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D390">
         <v>91</v>
@@ -15636,13 +15720,13 @@
     </row>
     <row r="391" spans="1:10">
       <c r="A391" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B391" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="C391" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D391">
         <v>173</v>
@@ -15668,13 +15752,13 @@
     </row>
     <row r="392" spans="1:10">
       <c r="A392" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B392" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="C392" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D392">
         <v>166</v>
@@ -15700,13 +15784,13 @@
     </row>
     <row r="393" spans="1:10">
       <c r="A393" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B393" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="C393" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D393">
         <v>127</v>
@@ -15729,13 +15813,13 @@
     </row>
     <row r="394" spans="1:10">
       <c r="A394" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="C394" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D394">
         <v>103</v>
@@ -15758,13 +15842,13 @@
     </row>
     <row r="395" spans="1:10">
       <c r="A395" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B395" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="C395" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D395">
         <v>87</v>
@@ -15787,13 +15871,13 @@
     </row>
     <row r="396" spans="1:10">
       <c r="A396" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B396" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="C396" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D396">
         <v>54</v>
@@ -15819,10 +15903,10 @@
     </row>
     <row r="397" spans="1:10">
       <c r="A397" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C397" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D397">
         <v>90</v>
@@ -15845,10 +15929,10 @@
         <v>113</v>
       </c>
       <c r="B398" t="s">
-        <v>1454</v>
+        <v>1428</v>
       </c>
       <c r="C398" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D398">
         <v>45</v>
@@ -15871,10 +15955,10 @@
         <v>114</v>
       </c>
       <c r="B399" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="C399" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D399">
         <v>180</v>
@@ -15897,13 +15981,13 @@
     </row>
     <row r="400" spans="1:10" ht="18">
       <c r="A400" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B400" s="7" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="C400" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D400">
         <v>291</v>
@@ -15923,13 +16007,13 @@
     </row>
     <row r="401" spans="1:10">
       <c r="A401" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B401" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="C401" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D401">
         <v>73</v>
@@ -15952,13 +16036,13 @@
     </row>
     <row r="402" spans="1:10">
       <c r="A402" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B402" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="C402" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D402">
         <v>84</v>
@@ -15978,13 +16062,13 @@
     </row>
     <row r="403" spans="1:10">
       <c r="A403" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B403" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="C403" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D403">
         <v>63</v>
@@ -16004,10 +16088,10 @@
     </row>
     <row r="404" spans="1:10">
       <c r="A404" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C404" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D404">
         <v>84</v>
@@ -16027,13 +16111,13 @@
     </row>
     <row r="405" spans="1:10">
       <c r="A405" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B405" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C405" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D405">
         <v>72</v>
@@ -16053,13 +16137,13 @@
     </row>
     <row r="406" spans="1:10">
       <c r="A406" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="B406" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="C406" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D406">
         <v>83</v>
@@ -16082,13 +16166,13 @@
     </row>
     <row r="407" spans="1:10">
       <c r="A407" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B407" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="C407" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D407">
         <v>77</v>
@@ -16111,13 +16195,13 @@
     </row>
     <row r="408" spans="1:10">
       <c r="A408" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B408" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="C408" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D408">
         <v>89</v>
@@ -16140,13 +16224,13 @@
     </row>
     <row r="409" spans="1:10">
       <c r="A409" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B409" t="s">
-        <v>1453</v>
+        <v>1427</v>
       </c>
       <c r="C409" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D409">
         <v>78</v>
@@ -16169,13 +16253,13 @@
     </row>
     <row r="410" spans="1:10">
       <c r="A410" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B410" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C410" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D410">
         <v>58</v>
@@ -16198,13 +16282,13 @@
     </row>
     <row r="411" spans="1:10">
       <c r="A411" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B411" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="C411" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D411">
         <v>269</v>
@@ -16224,13 +16308,13 @@
     </row>
     <row r="412" spans="1:10">
       <c r="A412" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B412" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="C412" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D412">
         <v>82</v>
@@ -16253,13 +16337,13 @@
     </row>
     <row r="413" spans="1:10">
       <c r="A413" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B413" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="C413" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D413">
         <v>90</v>
@@ -16285,13 +16369,13 @@
     </row>
     <row r="414" spans="1:10">
       <c r="A414" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B414" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C414" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D414">
         <v>347</v>
@@ -16311,13 +16395,13 @@
     </row>
     <row r="415" spans="1:10">
       <c r="A415" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B415" t="s">
-        <v>1452</v>
+        <v>1426</v>
       </c>
       <c r="C415" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D415">
         <v>38</v>
@@ -16340,13 +16424,13 @@
     </row>
     <row r="416" spans="1:10">
       <c r="A416" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B416" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="C416" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D416">
         <v>676</v>
@@ -16366,10 +16450,10 @@
     </row>
     <row r="417" spans="1:10">
       <c r="A417" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C417" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D417">
         <v>381</v>
@@ -16389,13 +16473,13 @@
     </row>
     <row r="418" spans="1:10">
       <c r="A418" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B418" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="C418" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D418">
         <v>323</v>
@@ -16415,10 +16499,10 @@
     </row>
     <row r="419" spans="1:10">
       <c r="A419" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C419" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D419">
         <v>312</v>
@@ -16438,13 +16522,13 @@
     </row>
     <row r="420" spans="1:10">
       <c r="A420" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B420" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="C420" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D420">
         <v>305</v>
@@ -16464,13 +16548,13 @@
     </row>
     <row r="421" spans="1:10">
       <c r="A421" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B421" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="C421" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D421">
         <v>166</v>
@@ -16496,13 +16580,13 @@
     </row>
     <row r="422" spans="1:10">
       <c r="A422" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B422" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="C422" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D422">
         <v>327</v>
@@ -16528,13 +16612,13 @@
     </row>
     <row r="423" spans="1:10">
       <c r="A423" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B423" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C423" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D423">
         <v>46</v>
@@ -16560,10 +16644,10 @@
     </row>
     <row r="424" spans="1:10">
       <c r="A424" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C424" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D424">
         <v>184</v>
@@ -16589,10 +16673,10 @@
     </row>
     <row r="425" spans="1:10">
       <c r="A425" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C425" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D425">
         <v>364</v>
@@ -16612,10 +16696,10 @@
     </row>
     <row r="426" spans="1:10">
       <c r="A426" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C426" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D426">
         <v>47</v>
@@ -16638,13 +16722,13 @@
     </row>
     <row r="427" spans="1:10">
       <c r="A427" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B427" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="C427" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D427">
         <v>154</v>
@@ -16670,10 +16754,10 @@
     </row>
     <row r="428" spans="1:10">
       <c r="A428" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C428" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D428">
         <v>171</v>
@@ -16693,10 +16777,10 @@
     </row>
     <row r="429" spans="1:10">
       <c r="A429" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C429" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D429">
         <v>274</v>
@@ -16722,13 +16806,13 @@
     </row>
     <row r="430" spans="1:10">
       <c r="A430" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B430" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="C430" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D430">
         <v>182</v>
@@ -16748,13 +16832,13 @@
     </row>
     <row r="431" spans="1:10">
       <c r="A431" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B431" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="C431" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D431">
         <v>563</v>
@@ -16774,13 +16858,13 @@
     </row>
     <row r="432" spans="1:10">
       <c r="A432" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B432" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="C432" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D432">
         <v>74</v>
@@ -16806,13 +16890,13 @@
     </row>
     <row r="433" spans="1:10">
       <c r="A433" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B433" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="C433" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D433">
         <v>69</v>
@@ -16838,13 +16922,13 @@
     </row>
     <row r="434" spans="1:10">
       <c r="A434" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="B434" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="C434" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D434">
         <v>61</v>
@@ -16870,13 +16954,13 @@
     </row>
     <row r="435" spans="1:10" ht="18">
       <c r="A435" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="C435" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D435">
         <v>61</v>
@@ -16902,13 +16986,13 @@
     </row>
     <row r="436" spans="1:10">
       <c r="A436" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B436" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="C436" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D436">
         <v>103</v>
@@ -16934,13 +17018,13 @@
     </row>
     <row r="437" spans="1:10">
       <c r="A437" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B437" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="C437" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D437">
         <v>494</v>
@@ -16966,13 +17050,13 @@
     </row>
     <row r="438" spans="1:10">
       <c r="A438" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B438" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="C438" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D438">
         <v>357</v>
@@ -16998,13 +17082,13 @@
     </row>
     <row r="439" spans="1:10">
       <c r="A439" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B439" t="s">
-        <v>1430</v>
+        <v>1408</v>
       </c>
       <c r="C439" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D439">
         <v>336</v>
@@ -17024,13 +17108,13 @@
     </row>
     <row r="440" spans="1:10">
       <c r="A440" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B440" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="C440" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D440">
         <v>380</v>
@@ -17056,10 +17140,10 @@
     </row>
     <row r="441" spans="1:10">
       <c r="A441" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C441" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D441">
         <v>58</v>
@@ -17079,10 +17163,10 @@
     </row>
     <row r="442" spans="1:10">
       <c r="A442" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C442" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D442">
         <v>8</v>
@@ -17108,10 +17192,10 @@
     </row>
     <row r="443" spans="1:10">
       <c r="A443" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C443" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D443">
         <v>53</v>
@@ -17137,10 +17221,10 @@
     </row>
     <row r="444" spans="1:10">
       <c r="A444" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C444" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D444">
         <v>680</v>
@@ -17157,10 +17241,10 @@
     </row>
     <row r="445" spans="1:10">
       <c r="A445" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C445" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D445">
         <v>56</v>
@@ -17180,13 +17264,13 @@
     </row>
     <row r="446" spans="1:10">
       <c r="A446" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B446" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C446" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D446">
         <v>64</v>
@@ -17212,10 +17296,10 @@
     </row>
     <row r="447" spans="1:10">
       <c r="A447" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C447" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D447">
         <v>198</v>
@@ -17235,10 +17319,10 @@
     </row>
     <row r="448" spans="1:10">
       <c r="A448" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C448" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D448">
         <v>218</v>
@@ -17258,10 +17342,10 @@
     </row>
     <row r="449" spans="1:10">
       <c r="A449" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C449" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D449">
         <v>218</v>
@@ -17281,10 +17365,10 @@
     </row>
     <row r="450" spans="1:10">
       <c r="A450" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C450" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D450">
         <v>208</v>
@@ -17304,10 +17388,10 @@
     </row>
     <row r="451" spans="1:10">
       <c r="A451" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C451" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D451">
         <v>178</v>
@@ -17327,10 +17411,10 @@
     </row>
     <row r="452" spans="1:10">
       <c r="A452" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C452" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D452">
         <v>62</v>
@@ -17350,10 +17434,10 @@
     </row>
     <row r="453" spans="1:10">
       <c r="A453" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C453" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D453">
         <v>53</v>
@@ -17379,10 +17463,10 @@
     </row>
     <row r="454" spans="1:10">
       <c r="A454" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C454" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D454">
         <v>60</v>
@@ -17402,13 +17486,13 @@
     </row>
     <row r="455" spans="1:10">
       <c r="A455" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B455" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="C455" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D455">
         <v>207</v>
@@ -17428,13 +17512,13 @@
     </row>
     <row r="456" spans="1:10">
       <c r="A456" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B456" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="C456" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D456">
         <v>233</v>
@@ -17451,13 +17535,13 @@
     </row>
     <row r="457" spans="1:10" ht="18">
       <c r="A457" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="C457" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D457">
         <v>251</v>
@@ -17477,13 +17561,13 @@
     </row>
     <row r="458" spans="1:10">
       <c r="A458" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B458" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="C458" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D458">
         <v>273</v>
@@ -17503,13 +17587,13 @@
     </row>
     <row r="459" spans="1:10" ht="18">
       <c r="A459" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="C459" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D459">
         <v>344</v>
@@ -17526,13 +17610,13 @@
     </row>
     <row r="460" spans="1:10" ht="18">
       <c r="A460" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="C460" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D460">
         <v>244</v>
@@ -17552,11 +17636,11 @@
     </row>
     <row r="461" spans="1:10" ht="18">
       <c r="A461" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B461" s="7"/>
       <c r="C461" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D461">
         <v>224</v>
@@ -17576,13 +17660,13 @@
     </row>
     <row r="462" spans="1:10">
       <c r="A462" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B462" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="C462" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D462">
         <v>346</v>
@@ -17602,13 +17686,13 @@
     </row>
     <row r="463" spans="1:10" ht="18">
       <c r="A463" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="C463" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D463">
         <v>376</v>
@@ -17628,10 +17712,10 @@
     </row>
     <row r="464" spans="1:10">
       <c r="A464" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C464" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D464">
         <v>395</v>
@@ -17651,10 +17735,10 @@
     </row>
     <row r="465" spans="1:10">
       <c r="A465" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C465" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D465">
         <v>368</v>
@@ -17674,13 +17758,13 @@
     </row>
     <row r="466" spans="1:10">
       <c r="A466" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B466" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="C466" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D466">
         <v>416</v>
@@ -17700,13 +17784,13 @@
     </row>
     <row r="467" spans="1:10">
       <c r="A467" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B467" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="C467" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D467">
         <v>492</v>
@@ -17726,10 +17810,10 @@
     </row>
     <row r="468" spans="1:10">
       <c r="A468" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C468" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D468">
         <v>376</v>
@@ -17749,10 +17833,10 @@
     </row>
     <row r="469" spans="1:10">
       <c r="A469" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C469" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D469">
         <v>435</v>
@@ -17772,13 +17856,13 @@
     </row>
     <row r="470" spans="1:10" ht="18">
       <c r="A470" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B470" s="7" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="C470" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D470">
         <v>449</v>
@@ -17798,10 +17882,10 @@
     </row>
     <row r="471" spans="1:10">
       <c r="A471" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C471" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D471">
         <v>543</v>
@@ -17818,13 +17902,13 @@
     </row>
     <row r="472" spans="1:10" ht="18">
       <c r="A472" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="C472" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D472">
         <v>369</v>
@@ -17844,13 +17928,13 @@
     </row>
     <row r="473" spans="1:10">
       <c r="A473" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B473" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="C473" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D473">
         <v>414</v>
@@ -17876,13 +17960,13 @@
     </row>
     <row r="474" spans="1:10">
       <c r="A474" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B474" t="s">
-        <v>1431</v>
+        <v>1468</v>
       </c>
       <c r="C474" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D474">
         <v>390</v>
@@ -17908,13 +17992,13 @@
     </row>
     <row r="475" spans="1:10">
       <c r="A475" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B475" t="s">
-        <v>1432</v>
+        <v>1469</v>
       </c>
       <c r="C475" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D475">
         <v>397</v>
@@ -17934,10 +18018,10 @@
     </row>
     <row r="476" spans="1:10">
       <c r="A476" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C476" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D476">
         <v>448</v>
@@ -17957,10 +18041,10 @@
     </row>
     <row r="477" spans="1:10">
       <c r="A477" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C477" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D477">
         <v>378</v>
@@ -17980,10 +18064,10 @@
     </row>
     <row r="478" spans="1:10">
       <c r="A478" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C478" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D478">
         <v>377</v>
@@ -18003,13 +18087,13 @@
     </row>
     <row r="479" spans="1:10">
       <c r="A479" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B479" t="s">
-        <v>1433</v>
+        <v>1409</v>
       </c>
       <c r="C479" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D479">
         <v>415</v>
@@ -18029,13 +18113,13 @@
     </row>
     <row r="480" spans="1:10">
       <c r="A480" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B480" t="s">
-        <v>1434</v>
+        <v>1410</v>
       </c>
       <c r="C480" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D480">
         <v>415</v>
@@ -18055,13 +18139,13 @@
     </row>
     <row r="481" spans="1:10">
       <c r="A481" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B481" t="s">
-        <v>1435</v>
+        <v>1411</v>
       </c>
       <c r="C481" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D481">
         <v>449</v>
@@ -18081,13 +18165,13 @@
     </row>
     <row r="482" spans="1:10">
       <c r="A482" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B482" t="s">
-        <v>1436</v>
+        <v>1412</v>
       </c>
       <c r="C482" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D482">
         <v>356</v>
@@ -18104,10 +18188,10 @@
     </row>
     <row r="483" spans="1:10">
       <c r="A483" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C483" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D483">
         <v>388</v>
@@ -18127,10 +18211,10 @@
     </row>
     <row r="484" spans="1:10">
       <c r="A484" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C484" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D484">
         <v>390</v>
@@ -18147,13 +18231,13 @@
     </row>
     <row r="485" spans="1:10">
       <c r="A485" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B485" t="s">
-        <v>1437</v>
+        <v>1413</v>
       </c>
       <c r="C485" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D485">
         <v>417</v>
@@ -18173,13 +18257,13 @@
     </row>
     <row r="486" spans="1:10">
       <c r="A486" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B486" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="C486" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D486">
         <v>331</v>
@@ -18199,10 +18283,10 @@
     </row>
     <row r="487" spans="1:10">
       <c r="A487" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C487" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D487">
         <v>327</v>
@@ -18228,13 +18312,13 @@
     </row>
     <row r="488" spans="1:10">
       <c r="A488" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B488" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="C488" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D488">
         <v>431</v>
@@ -18254,13 +18338,13 @@
     </row>
     <row r="489" spans="1:10">
       <c r="A489" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B489" t="s">
-        <v>1438</v>
+        <v>1414</v>
       </c>
       <c r="C489" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D489">
         <v>283</v>
@@ -18280,13 +18364,13 @@
     </row>
     <row r="490" spans="1:10">
       <c r="A490" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B490" t="s">
         <v>1017</v>
       </c>
-      <c r="B490" t="s">
-        <v>1018</v>
-      </c>
       <c r="C490" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D490">
         <v>323</v>
@@ -18312,13 +18396,13 @@
     </row>
     <row r="491" spans="1:10">
       <c r="A491" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B491" t="s">
-        <v>1439</v>
+        <v>1415</v>
       </c>
       <c r="C491" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D491">
         <v>29</v>
@@ -18344,13 +18428,13 @@
     </row>
     <row r="492" spans="1:10">
       <c r="A492" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B492" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C492" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D492">
         <v>231</v>
@@ -18376,13 +18460,13 @@
     </row>
     <row r="493" spans="1:10">
       <c r="A493" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B493" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C493" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D493">
         <v>0</v>
@@ -18408,13 +18492,13 @@
     </row>
     <row r="494" spans="1:10">
       <c r="A494" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B494" t="s">
         <v>1020</v>
       </c>
-      <c r="B494" t="s">
-        <v>1021</v>
-      </c>
       <c r="C494" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D494">
         <v>295</v>
@@ -18440,13 +18524,13 @@
     </row>
     <row r="495" spans="1:10">
       <c r="A495" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B495" t="s">
-        <v>1022</v>
+        <v>1470</v>
       </c>
       <c r="C495" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D495">
         <v>25</v>
@@ -18469,13 +18553,13 @@
     </row>
     <row r="496" spans="1:10">
       <c r="A496" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B496" t="s">
-        <v>1023</v>
+        <v>1471</v>
       </c>
       <c r="C496" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D496">
         <v>227</v>
@@ -18495,13 +18579,13 @@
     </row>
     <row r="497" spans="1:10">
       <c r="A497" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B497" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="C497" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D497">
         <v>26</v>
@@ -18518,10 +18602,10 @@
     </row>
     <row r="498" spans="1:10">
       <c r="A498" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C498" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D498">
         <v>65</v>
@@ -18547,13 +18631,13 @@
     </row>
     <row r="499" spans="1:10">
       <c r="A499" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B499" t="s">
-        <v>1440</v>
+        <v>1472</v>
       </c>
       <c r="C499" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D499">
         <v>73</v>
@@ -18576,13 +18660,13 @@
     </row>
     <row r="500" spans="1:10">
       <c r="A500" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B500" t="s">
-        <v>1441</v>
+        <v>1416</v>
       </c>
       <c r="C500" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D500">
         <v>44</v>
@@ -18605,13 +18689,13 @@
     </row>
     <row r="501" spans="1:10">
       <c r="A501" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B501" t="s">
-        <v>1442</v>
+        <v>1417</v>
       </c>
       <c r="C501" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D501">
         <v>68</v>
@@ -18634,13 +18718,13 @@
     </row>
     <row r="502" spans="1:10">
       <c r="A502" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B502" t="s">
-        <v>1443</v>
+        <v>1418</v>
       </c>
       <c r="C502" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D502">
         <v>60</v>
@@ -18663,13 +18747,13 @@
     </row>
     <row r="503" spans="1:10">
       <c r="A503" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B503" t="s">
-        <v>1444</v>
+        <v>1419</v>
       </c>
       <c r="C503" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D503">
         <v>28</v>
@@ -18689,10 +18773,10 @@
     </row>
     <row r="504" spans="1:10">
       <c r="A504" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C504" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D504">
         <v>21</v>
@@ -18715,13 +18799,13 @@
     </row>
     <row r="505" spans="1:10">
       <c r="A505" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B505" t="s">
-        <v>1445</v>
+        <v>1420</v>
       </c>
       <c r="C505" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D505">
         <v>35</v>
@@ -18747,13 +18831,13 @@
     </row>
     <row r="506" spans="1:10">
       <c r="A506" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B506" t="s">
-        <v>1446</v>
+        <v>1421</v>
       </c>
       <c r="C506" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D506">
         <v>131</v>
@@ -18776,13 +18860,13 @@
     </row>
     <row r="507" spans="1:10">
       <c r="A507" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B507" t="s">
-        <v>1447</v>
+        <v>1422</v>
       </c>
       <c r="C507" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D507">
         <v>75</v>
@@ -18805,10 +18889,10 @@
     </row>
     <row r="508" spans="1:10">
       <c r="A508" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C508" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D508">
         <v>86</v>
@@ -18831,13 +18915,13 @@
     </row>
     <row r="509" spans="1:10">
       <c r="A509" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B509" t="s">
-        <v>1448</v>
+        <v>1473</v>
       </c>
       <c r="C509" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D509">
         <v>37</v>
@@ -18863,13 +18947,13 @@
     </row>
     <row r="510" spans="1:10">
       <c r="A510" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B510" t="s">
-        <v>1449</v>
+        <v>1423</v>
       </c>
       <c r="C510" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D510">
         <v>53</v>
@@ -18895,13 +18979,13 @@
     </row>
     <row r="511" spans="1:10">
       <c r="A511" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B511" t="s">
-        <v>1450</v>
+        <v>1424</v>
       </c>
       <c r="C511" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D511">
         <v>701</v>
@@ -18927,13 +19011,13 @@
     </row>
     <row r="512" spans="1:10">
       <c r="A512" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B512" t="s">
-        <v>1451</v>
+        <v>1425</v>
       </c>
       <c r="C512" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D512">
         <v>11</v>
@@ -18954,38 +19038,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="513" spans="1:10">
+    <row r="513" spans="1:11">
       <c r="A513" t="s">
+        <v>636</v>
+      </c>
+      <c r="C513" t="s">
+        <v>988</v>
+      </c>
+      <c r="D513">
+        <v>0</v>
+      </c>
+      <c r="E513">
+        <v>0</v>
+      </c>
+      <c r="F513">
+        <v>0</v>
+      </c>
+      <c r="G513">
+        <v>0</v>
+      </c>
+      <c r="H513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11">
+      <c r="A514" t="s">
         <v>637</v>
       </c>
-      <c r="C513" t="s">
+      <c r="B514" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C514" t="s">
         <v>989</v>
-      </c>
-      <c r="D513">
-        <v>0</v>
-      </c>
-      <c r="E513">
-        <v>0</v>
-      </c>
-      <c r="F513">
-        <v>0</v>
-      </c>
-      <c r="G513">
-        <v>0</v>
-      </c>
-      <c r="H513">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514" spans="1:10">
-      <c r="A514" t="s">
-        <v>638</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C514" t="s">
-        <v>990</v>
       </c>
       <c r="D514">
         <v>63</v>
@@ -19003,15 +19087,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:10">
+    <row r="515" spans="1:11">
       <c r="A515" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B515" t="s">
-        <v>1026</v>
+        <v>1474</v>
       </c>
       <c r="C515" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D515">
         <v>42</v>
@@ -19029,15 +19113,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:10">
+    <row r="516" spans="1:11">
       <c r="A516" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B516" t="s">
-        <v>1027</v>
+        <v>1475</v>
       </c>
       <c r="C516" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D516">
         <v>23</v>
@@ -19061,15 +19145,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:10">
+    <row r="517" spans="1:11">
       <c r="A517" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B517" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="C517" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D517">
         <v>21</v>
@@ -19087,15 +19171,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:10">
+    <row r="518" spans="1:11">
       <c r="A518" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B518" t="s">
-        <v>1029</v>
+        <v>1476</v>
       </c>
       <c r="C518" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D518">
         <v>19</v>
@@ -19116,41 +19200,44 @@
         <v>269</v>
       </c>
     </row>
-    <row r="519" spans="1:10">
+    <row r="519" spans="1:11">
       <c r="A519" t="s">
+        <v>642</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C519" t="s">
+        <v>274</v>
+      </c>
+      <c r="D519">
+        <v>0</v>
+      </c>
+      <c r="E519">
+        <v>0</v>
+      </c>
+      <c r="F519">
+        <v>0</v>
+      </c>
+      <c r="G519">
+        <v>0</v>
+      </c>
+      <c r="H519">
+        <v>0</v>
+      </c>
+      <c r="I519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11">
+      <c r="A520" t="s">
         <v>643</v>
       </c>
-      <c r="B519" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C519" t="s">
+      <c r="B520" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C520" t="s">
         <v>275</v>
-      </c>
-      <c r="D519">
-        <v>0</v>
-      </c>
-      <c r="E519">
-        <v>0</v>
-      </c>
-      <c r="F519">
-        <v>0</v>
-      </c>
-      <c r="G519">
-        <v>0</v>
-      </c>
-      <c r="H519">
-        <v>0</v>
-      </c>
-      <c r="I519">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520" spans="1:10">
-      <c r="A520" t="s">
-        <v>644</v>
-      </c>
-      <c r="C520" t="s">
-        <v>276</v>
       </c>
       <c r="D520">
         <v>24</v>
@@ -19174,35 +19261,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:10">
+    <row r="521" spans="1:11">
       <c r="A521" t="s">
+        <v>644</v>
+      </c>
+      <c r="C521" t="s">
+        <v>991</v>
+      </c>
+      <c r="D521">
+        <v>0</v>
+      </c>
+      <c r="E521">
+        <v>0</v>
+      </c>
+      <c r="F521">
+        <v>0</v>
+      </c>
+      <c r="G521">
+        <v>0</v>
+      </c>
+      <c r="H521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11">
+      <c r="A522" t="s">
         <v>645</v>
       </c>
-      <c r="C521" t="s">
+      <c r="C522" t="s">
         <v>992</v>
-      </c>
-      <c r="D521">
-        <v>0</v>
-      </c>
-      <c r="E521">
-        <v>0</v>
-      </c>
-      <c r="F521">
-        <v>0</v>
-      </c>
-      <c r="G521">
-        <v>0</v>
-      </c>
-      <c r="H521">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522" spans="1:10">
-      <c r="A522" t="s">
-        <v>646</v>
-      </c>
-      <c r="C522" t="s">
-        <v>993</v>
       </c>
       <c r="D522">
         <v>167</v>
@@ -19220,15 +19307,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="523" spans="1:10">
+    <row r="523" spans="1:11">
       <c r="A523" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B523" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="C523" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D523">
         <v>273</v>
@@ -19246,15 +19333,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:10">
+    <row r="524" spans="1:11">
       <c r="A524" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B524" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="C524" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D524">
         <v>9</v>
@@ -19272,12 +19359,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:10">
+    <row r="525" spans="1:11">
       <c r="A525" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C525" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D525">
         <v>1</v>
@@ -19301,12 +19388,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="526" spans="1:10">
+    <row r="526" spans="1:11">
       <c r="A526" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C526" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D526">
         <v>24</v>
@@ -19330,15 +19417,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="527" spans="1:10">
+    <row r="527" spans="1:11">
       <c r="A527" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B527" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C527" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D527">
         <v>0</v>
@@ -19357,6 +19444,172 @@
       </c>
       <c r="I527">
         <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11">
+      <c r="A528" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D528">
+        <v>857</v>
+      </c>
+      <c r="E528">
+        <v>0</v>
+      </c>
+      <c r="F528">
+        <v>100</v>
+      </c>
+      <c r="G528">
+        <v>0</v>
+      </c>
+      <c r="H528">
+        <v>0</v>
+      </c>
+      <c r="I528">
+        <v>0</v>
+      </c>
+      <c r="J528">
+        <v>0</v>
+      </c>
+      <c r="K528" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11">
+      <c r="A529" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D529">
+        <v>109</v>
+      </c>
+      <c r="E529">
+        <v>1.08</v>
+      </c>
+      <c r="F529">
+        <v>0.32</v>
+      </c>
+      <c r="G529">
+        <v>27.1</v>
+      </c>
+      <c r="H529">
+        <v>0.3</v>
+      </c>
+      <c r="I529">
+        <v>21.5</v>
+      </c>
+      <c r="J529">
+        <v>928</v>
+      </c>
+      <c r="K529" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11">
+      <c r="A530" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D530">
+        <v>51</v>
+      </c>
+      <c r="E530">
+        <v>1.35</v>
+      </c>
+      <c r="F530">
+        <v>0.25</v>
+      </c>
+      <c r="G530">
+        <v>10.92</v>
+      </c>
+      <c r="H530">
+        <v>0.3</v>
+      </c>
+      <c r="I530">
+        <v>0</v>
+      </c>
+      <c r="J530">
+        <v>2733</v>
+      </c>
+      <c r="K530" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11">
+      <c r="A531" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D531">
+        <v>21</v>
+      </c>
+      <c r="E531">
+        <v>0</v>
+      </c>
+      <c r="F531">
+        <v>0</v>
+      </c>
+      <c r="G531">
+        <v>0.93</v>
+      </c>
+      <c r="H531">
+        <v>0</v>
+      </c>
+      <c r="I531">
+        <v>0.4</v>
+      </c>
+      <c r="J531">
+        <v>5</v>
+      </c>
+      <c r="K531" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11">
+      <c r="A532" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D532">
+        <v>31</v>
+      </c>
+      <c r="E532">
+        <v>0.21</v>
+      </c>
+      <c r="F532">
+        <v>2.08</v>
+      </c>
+      <c r="G532">
+        <v>6.67</v>
+      </c>
+      <c r="H532">
+        <v>0</v>
+      </c>
+      <c r="I532">
+        <v>6.67</v>
+      </c>
+      <c r="J532">
+        <v>467</v>
+      </c>
+      <c r="K532" t="s">
+        <v>1481</v>
       </c>
     </row>
   </sheetData>
@@ -19377,15 +19630,15 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>1458</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1459</v>
+        <v>1433</v>
       </c>
       <c r="C2" t="s">
-        <v>1460</v>
+        <v>1434</v>
       </c>
     </row>
   </sheetData>
